--- a/CountsOfInputFile.xlsx
+++ b/CountsOfInputFile.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="77">
   <si>
     <t>naMe:Milk;price:3.23;type:Food;expiration:1/25/2016##</t>
   </si>
@@ -255,9 +255,6 @@
   </si>
   <si>
     <t>S</t>
-  </si>
-  <si>
-    <t>^</t>
   </si>
 </sst>
 </file>
@@ -617,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +677,7 @@
         <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
         <v>26</v>
